--- a/cxProgrammer/SYmbolTable.xlsx
+++ b/cxProgrammer/SYmbolTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IPCA\MEEC\Ano_2\AutomacaoAvancada\Projeto\Projeto\cxProgrammer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jomrodrigues\Documents\GitHub\ProjetoAutomacaoAvancada\cxProgrammer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A744AE6-48CD-488F-802A-A5B1F7AA8C79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{538857FA-8B8D-4358-9DF5-004D26348C5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D5AA323F-4CE4-4359-9F51-4D311BFF9B26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5AA323F-4CE4-4359-9F51-4D311BFF9B26}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="358">
   <si>
     <t>B_Start</t>
   </si>
@@ -860,12 +858,6 @@
     <t>First Cycle Flag</t>
   </si>
   <si>
-    <t>Cartesian</t>
-  </si>
-  <si>
-    <t>FUNCTION BLOCK</t>
-  </si>
-  <si>
     <t>Init_ProcStatus</t>
   </si>
   <si>
@@ -987,6 +979,138 @@
   </si>
   <si>
     <t>D13</t>
+  </si>
+  <si>
+    <t>Coluna2</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>Reserved</t>
+  </si>
+  <si>
+    <t>ProgramNum</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>Program number in execution</t>
+  </si>
+  <si>
+    <t>PosNum</t>
+  </si>
+  <si>
+    <t>Pos X/Y number</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>Coluna3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 = N/A
+1 = Initializing
+2 = Waiting
+3 = Automatic
+4 = Manual
+5 = Stopped
+</t>
+  </si>
+  <si>
+    <t>Bola</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Pedidos HMI</t>
+  </si>
+  <si>
+    <t>D22.00</t>
+  </si>
+  <si>
+    <t>D22.01</t>
+  </si>
+  <si>
+    <t>D22.02</t>
+  </si>
+  <si>
+    <t>D22.03</t>
+  </si>
+  <si>
+    <t>D22.04</t>
+  </si>
+  <si>
+    <t>D22.05</t>
+  </si>
+  <si>
+    <t>D22.06</t>
+  </si>
+  <si>
+    <t>D23.01</t>
+  </si>
+  <si>
+    <t>D25</t>
+  </si>
+  <si>
+    <t>D26</t>
+  </si>
+  <si>
+    <t>D27</t>
+  </si>
+  <si>
+    <t>Reserved Flags</t>
+  </si>
+  <si>
+    <t>Z position</t>
+  </si>
+  <si>
+    <t>D96</t>
+  </si>
+  <si>
+    <t>Teach</t>
+  </si>
+  <si>
+    <t>End Teach</t>
+  </si>
+  <si>
+    <t>D23.02</t>
+  </si>
+  <si>
+    <t>Info Camera</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D31</t>
+  </si>
+  <si>
+    <t>Peca presente</t>
+  </si>
+  <si>
+    <t>Numero produto</t>
   </si>
 </sst>
 </file>
@@ -1008,15 +1132,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1024,12 +1154,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,17 +1201,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6363BEA0-B905-441C-B895-1EF9C115E5AB}" name="Tabela1" displayName="Tabela1" ref="A1:E105" totalsRowShown="0">
-  <autoFilter ref="A1:E105" xr:uid="{54F0A81A-6FDD-4EF8-8913-D71A58351201}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E105">
-    <sortCondition ref="C1:C105"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6363BEA0-B905-441C-B895-1EF9C115E5AB}" name="Tabela1" displayName="Tabela1" ref="A1:G109" totalsRowShown="0">
+  <autoFilter ref="A1:G109" xr:uid="{54F0A81A-6FDD-4EF8-8913-D71A58351201}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E107">
+    <sortCondition ref="C1:C107"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{665F31D4-64E3-4465-9B03-845887269735}" name="Name"/>
     <tableColumn id="2" xr3:uid="{0E977BA5-9CEF-4554-AD97-AA4EDE5B9148}" name="Data Type"/>
     <tableColumn id="3" xr3:uid="{1A8A6B3D-E8C5-464F-A128-907785DD9282}" name="Address/Value"/>
     <tableColumn id="4" xr3:uid="{2CD7E569-59C0-4270-87AB-34025841C7F7}" name="Comment"/>
     <tableColumn id="5" xr3:uid="{5E9DE943-BB93-4832-A74A-02EC71FFE78C}" name="Coluna1"/>
+    <tableColumn id="6" xr3:uid="{227E587F-9918-43FC-BDEF-0E89B6B2EC6B}" name="Coluna2"/>
+    <tableColumn id="7" xr3:uid="{7DFCD701-A73A-4C3D-B6B0-8F0978CC07F4}" name="Coluna3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1361,21 +1516,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2BA060-3721-4E9F-8604-2952E8D1CFE8}">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E104"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1391,8 +1548,14 @@
       <c r="E1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1409,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1426,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1443,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1460,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -1477,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1494,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -1511,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1528,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1545,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1562,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -1579,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1596,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -1613,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -1630,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1647,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -1661,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>272</v>
       </c>
@@ -1678,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>269</v>
       </c>
@@ -1695,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>266</v>
       </c>
@@ -1712,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>263</v>
       </c>
@@ -1729,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>259</v>
       </c>
@@ -1746,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>256</v>
       </c>
@@ -1763,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>253</v>
       </c>
@@ -1780,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>250</v>
       </c>
@@ -1797,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>247</v>
       </c>
@@ -1814,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>244</v>
       </c>
@@ -1831,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>241</v>
       </c>
@@ -1848,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>238</v>
       </c>
@@ -1865,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>235</v>
       </c>
@@ -1882,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>232</v>
       </c>
@@ -1899,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>229</v>
       </c>
@@ -1916,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>226</v>
       </c>
@@ -1933,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>223</v>
       </c>
@@ -1950,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>220</v>
       </c>
@@ -1967,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>217</v>
       </c>
@@ -1984,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>214</v>
       </c>
@@ -2001,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>211</v>
       </c>
@@ -2018,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>208</v>
       </c>
@@ -2035,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>205</v>
       </c>
@@ -2052,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>202</v>
       </c>
@@ -2069,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>198</v>
       </c>
@@ -2086,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>195</v>
       </c>
@@ -2103,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>192</v>
       </c>
@@ -2120,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>189</v>
       </c>
@@ -2137,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>186</v>
       </c>
@@ -2154,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>183</v>
       </c>
@@ -2171,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>180</v>
       </c>
@@ -2188,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>177</v>
       </c>
@@ -2205,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>174</v>
       </c>
@@ -2222,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>171</v>
       </c>
@@ -2239,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>168</v>
       </c>
@@ -2256,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>165</v>
       </c>
@@ -2273,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>162</v>
       </c>
@@ -2290,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>159</v>
       </c>
@@ -2307,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>156</v>
       </c>
@@ -2324,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>153</v>
       </c>
@@ -2341,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>150</v>
       </c>
@@ -2358,7 +2521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>147</v>
       </c>
@@ -2375,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>144</v>
       </c>
@@ -2392,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>141</v>
       </c>
@@ -2409,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>138</v>
       </c>
@@ -2426,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>135</v>
       </c>
@@ -2443,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>132</v>
       </c>
@@ -2460,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2477,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>43</v>
       </c>
@@ -2485,7 +2648,7 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D66" t="s">
         <v>10</v>
@@ -2494,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>44</v>
       </c>
@@ -2502,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D67" t="s">
         <v>3</v>
@@ -2511,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>45</v>
       </c>
@@ -2519,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D68" t="s">
         <v>13</v>
@@ -2528,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>46</v>
       </c>
@@ -2536,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D69" t="s">
         <v>19</v>
@@ -2545,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -2553,7 +2716,7 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D70" t="s">
         <v>20</v>
@@ -2562,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>48</v>
       </c>
@@ -2570,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D71" t="s">
         <v>21</v>
@@ -2579,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>49</v>
       </c>
@@ -2587,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D72" t="s">
         <v>22</v>
@@ -2596,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -2604,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D73" t="s">
         <v>24</v>
@@ -2613,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -2621,7 +2784,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D74" t="s">
         <v>28</v>
@@ -2630,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -2638,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D75" t="s">
         <v>36</v>
@@ -2647,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -2655,7 +2818,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D76" t="s">
         <v>37</v>
@@ -2664,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -2672,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D77" t="s">
         <v>39</v>
@@ -2681,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -2689,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D78" t="s">
         <v>40</v>
@@ -2698,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -2706,7 +2869,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D79" t="s">
         <v>41</v>
@@ -2715,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>128</v>
       </c>
@@ -2723,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D80" t="s">
         <v>42</v>
@@ -2732,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2740,16 +2903,16 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D81" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>125</v>
       </c>
@@ -2766,24 +2929,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B83" t="s">
         <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D83" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>113</v>
       </c>
@@ -2800,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>110</v>
       </c>
@@ -2817,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>107</v>
       </c>
@@ -2834,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>104</v>
       </c>
@@ -2851,7 +3014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -2868,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -2885,58 +3048,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>281</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>282</v>
+      </c>
+      <c r="D90" t="s">
         <v>283</v>
       </c>
-      <c r="B90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>284</v>
       </c>
-      <c r="D90" t="s">
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
         <v>285</v>
       </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="D91" t="s">
         <v>286</v>
       </c>
-      <c r="B91" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" t="s">
-        <v>287</v>
-      </c>
-      <c r="D91" t="s">
-        <v>288</v>
-      </c>
       <c r="E91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B92" t="s">
         <v>117</v>
       </c>
       <c r="C92" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D92" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>123</v>
       </c>
@@ -2944,7 +3107,7 @@
         <v>117</v>
       </c>
       <c r="C93" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D93" t="s">
         <v>124</v>
@@ -2953,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -2961,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D94" t="s">
         <v>97</v>
@@ -2970,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -2978,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D95" t="s">
         <v>95</v>
@@ -2987,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>92</v>
       </c>
@@ -2995,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D96" t="s">
         <v>93</v>
@@ -3004,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>90</v>
       </c>
@@ -3012,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D97" t="s">
         <v>91</v>
@@ -3021,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>88</v>
       </c>
@@ -3029,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D98" t="s">
         <v>89</v>
@@ -3038,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>86</v>
       </c>
@@ -3046,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D99" t="s">
         <v>87</v>
@@ -3055,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>84</v>
       </c>
@@ -3063,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D100" t="s">
         <v>85</v>
@@ -3072,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>82</v>
       </c>
@@ -3080,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D101" t="s">
         <v>83</v>
@@ -3089,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>121</v>
       </c>
@@ -3097,7 +3260,7 @@
         <v>117</v>
       </c>
       <c r="C102" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D102" t="s">
         <v>122</v>
@@ -3106,56 +3269,263 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>314</v>
+      </c>
+      <c r="D103" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>315</v>
+      </c>
+      <c r="D104" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>119</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B105" t="s">
         <v>117</v>
       </c>
-      <c r="C103" t="s">
-        <v>316</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="C105" t="s">
+        <v>317</v>
+      </c>
+      <c r="D105" t="s">
         <v>120</v>
       </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>116</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B106" t="s">
         <v>117</v>
       </c>
-      <c r="C104" t="s">
-        <v>317</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="C106" t="s">
+        <v>318</v>
+      </c>
+      <c r="D106" t="s">
         <v>118</v>
       </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>275</v>
-      </c>
-      <c r="B105" t="s">
-        <v>276</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
+      <c r="E106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>320</v>
+      </c>
+      <c r="C107" t="s">
+        <v>321</v>
+      </c>
+      <c r="D107" t="s">
+        <v>322</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>323</v>
+      </c>
+      <c r="C108" t="s">
+        <v>349</v>
+      </c>
+      <c r="D108" t="s">
+        <v>324</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>325</v>
+      </c>
+      <c r="C109" t="s">
+        <v>326</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="5"/>
+      <c r="C111" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="5"/>
+      <c r="C112" t="s">
+        <v>331</v>
+      </c>
+      <c r="D112" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="5"/>
+      <c r="C113" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="5"/>
+      <c r="C115" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="5"/>
+      <c r="C116" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+      <c r="C117" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+      <c r="C118" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="5"/>
+      <c r="C119" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="5"/>
+      <c r="C120" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="5"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>350</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>351</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C124" t="s">
+        <v>344</v>
+      </c>
+      <c r="D124" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="5"/>
+      <c r="C125" t="s">
+        <v>345</v>
+      </c>
+      <c r="D125" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="5"/>
+      <c r="C126" t="s">
+        <v>346</v>
+      </c>
+      <c r="D126" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C127" t="s">
+        <v>354</v>
+      </c>
+      <c r="D127" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="6"/>
+      <c r="C128" t="s">
+        <v>355</v>
+      </c>
+      <c r="D128" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A114:A121"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A127:A128"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>